--- a/Excel/MonsterData.xlsx
+++ b/Excel/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\RougeLike\trunk\Resource\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\RougeLike\trunk\Resource\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E95AB-9F95-4762-844C-3623BEB7DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E2AE4E-0361-4328-A90D-678562BCA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,184 +97,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-物理防御力 近程怪计算 对应物理攻击力</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-魔法攻击力 远程怪</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-魔法防御力 针对魔法攻击力</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-命中
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-闪避
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-暴击攻击概率
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>James:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-暴击防御概率
-（0.0f - 100.0f)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>---</t>
   </si>
@@ -303,19 +131,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CritAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CritDefence</t>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,18 +159,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,7 +178,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -351,7 +187,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -360,7 +196,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +205,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -378,7 +214,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,7 +222,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,7 +230,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,7 +246,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,7 +255,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,7 +264,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -436,7 +272,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,7 +281,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -453,7 +289,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -462,7 +298,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,7 +307,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,7 +315,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1309,20 +1145,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,28 +1172,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1371,28 +1213,34 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1406,28 +1254,34 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1441,28 +1295,34 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1476,28 +1336,34 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1511,28 +1377,34 @@
         <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1546,28 +1418,34 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1581,28 +1459,34 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1616,31 +1500,37 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MonsterData.xlsx
+++ b/Excel/MonsterData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\RougeLike\trunk\Resource\UE4RougeLike\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\ForTomorrow\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E2AE4E-0361-4328-A90D-678562BCA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062F0EE-7206-4FE8-9D63-869A2A08EC85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -42,6 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -66,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,6 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>James:</t>
@@ -90,6 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -324,6 +330,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -331,6 +338,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -759,13 +767,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -786,30 +795,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1145,16 +1154,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,331 +1210,2914 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>250</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>800</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="2">
+        <v>800</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>80</v>
+      </c>
+      <c r="I13" s="2">
+        <v>80</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="2">
+        <v>500</v>
+      </c>
+      <c r="C14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>500</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="2">
+        <v>250</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="2">
+        <v>500</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>80</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="2">
+        <v>500</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="2">
+        <v>500</v>
+      </c>
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>500</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="2">
+        <v>500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="2">
+        <v>800</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2">
+        <v>80</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>500</v>
+      </c>
+      <c r="C23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="2">
+        <v>800</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2">
+        <v>80</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C25" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="D25" s="2">
+        <v>150</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2">
+        <v>150</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C26" s="2">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2">
+        <v>300</v>
+      </c>
+      <c r="E26" s="2">
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2">
+        <v>200</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>200</v>
+      </c>
+      <c r="D27" s="2">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2">
+        <v>300</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2">
+        <v>200</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2">
+        <v>300</v>
+      </c>
+      <c r="E28" s="2">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>200</v>
+      </c>
+      <c r="I28" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C29" s="2">
+        <v>200</v>
+      </c>
+      <c r="D29" s="2">
+        <v>130</v>
+      </c>
+      <c r="E29" s="2">
+        <v>320</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" s="2">
+        <v>150</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D30" s="2">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2">
+        <v>320</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>150</v>
+      </c>
+      <c r="I30" s="2">
+        <v>120</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2">
+        <v>300</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="I31" s="2">
+        <v>200</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C32" s="2">
+        <v>200</v>
+      </c>
+      <c r="D32" s="2">
+        <v>130</v>
+      </c>
+      <c r="E32" s="2">
+        <v>320</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" s="2">
+        <v>150</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C33" s="2">
+        <v>200</v>
+      </c>
+      <c r="D33" s="2">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2">
+        <v>320</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" s="2">
+        <v>150</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C34" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="D34" s="2">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2">
+        <v>320</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>150</v>
+      </c>
+      <c r="I34" s="2">
+        <v>120</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>200</v>
+      </c>
+      <c r="D35" s="2">
+        <v>120</v>
+      </c>
+      <c r="E35" s="2">
+        <v>300</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="I35" s="2">
+        <v>200</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>200</v>
+      </c>
+      <c r="D36" s="2">
+        <v>120</v>
+      </c>
+      <c r="E36" s="2">
+        <v>300</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
         <v>100</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="I36" s="2">
+        <v>200</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C37" s="2">
         <v>100</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
+      <c r="D37" s="2">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <v>320</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>150</v>
+      </c>
+      <c r="I37" s="2">
+        <v>120</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>200</v>
+      </c>
+      <c r="D38" s="2">
+        <v>120</v>
+      </c>
+      <c r="E38" s="2">
+        <v>300</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>100</v>
+      </c>
+      <c r="I38" s="2">
+        <v>200</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>1038</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>200</v>
+      </c>
+      <c r="D39" s="2">
+        <v>120</v>
+      </c>
+      <c r="E39" s="2">
+        <v>300</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>100</v>
+      </c>
+      <c r="I39" s="2">
+        <v>200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <v>320</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>150</v>
+      </c>
+      <c r="I40" s="2">
+        <v>120</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>200</v>
+      </c>
+      <c r="D41" s="2">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2">
+        <v>300</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2">
+        <v>200</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>1041</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C42" s="2">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2">
+        <v>300</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>1042</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C43" s="2">
+        <v>200</v>
+      </c>
+      <c r="D43" s="2">
+        <v>120</v>
+      </c>
+      <c r="E43" s="2">
+        <v>300</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>100</v>
+      </c>
+      <c r="I43" s="2">
+        <v>200</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>1043</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C44" s="2">
+        <v>500</v>
+      </c>
+      <c r="D44" s="2">
+        <v>180</v>
+      </c>
+      <c r="E44" s="2">
+        <v>280</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>200</v>
+      </c>
+      <c r="I44" s="2">
+        <v>280</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>1044</v>
+      </c>
+      <c r="B45" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>800</v>
+      </c>
+      <c r="D45" s="2">
+        <v>150</v>
+      </c>
+      <c r="E45" s="2">
+        <v>350</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>150</v>
+      </c>
+      <c r="I45" s="2">
+        <v>300</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B46" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>500</v>
+      </c>
+      <c r="D46" s="2">
+        <v>300</v>
+      </c>
+      <c r="E46" s="2">
+        <v>100</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300</v>
+      </c>
+      <c r="I46" s="2">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>1046</v>
+      </c>
+      <c r="B47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>300</v>
+      </c>
+      <c r="D47" s="2">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2">
+        <v>230</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>230</v>
+      </c>
+      <c r="I47" s="2">
+        <v>200</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B48" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>800</v>
+      </c>
+      <c r="D48" s="2">
+        <v>150</v>
+      </c>
+      <c r="E48" s="2">
+        <v>350</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>150</v>
+      </c>
+      <c r="I48" s="2">
+        <v>300</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>500</v>
+      </c>
+      <c r="D49" s="2">
+        <v>300</v>
+      </c>
+      <c r="E49" s="2">
+        <v>100</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>300</v>
+      </c>
+      <c r="I49" s="2">
+        <v>100</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>150</v>
+      </c>
+      <c r="D50" s="2">
+        <v>130</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>120</v>
+      </c>
+      <c r="I50" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>200</v>
+      </c>
+      <c r="D51" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2">
+        <v>180</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" s="2">
+        <v>150</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C52" s="2">
+        <v>50</v>
+      </c>
+      <c r="D52" s="2">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2">
+        <v>150</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>120</v>
+      </c>
+      <c r="I52" s="2">
+        <v>20</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C53" s="2">
+        <v>300</v>
+      </c>
+      <c r="D53" s="2">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2">
+        <v>180</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>200</v>
+      </c>
+      <c r="I53" s="2">
+        <v>100</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C54" s="2">
+        <v>300</v>
+      </c>
+      <c r="D54" s="2">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2">
+        <v>180</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>150</v>
+      </c>
+      <c r="I54" s="2">
+        <v>100</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B55" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C55" s="2">
+        <v>300</v>
+      </c>
+      <c r="D55" s="2">
+        <v>180</v>
+      </c>
+      <c r="E55" s="2">
+        <v>200</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100</v>
+      </c>
+      <c r="I55" s="2">
+        <v>130</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>1107</v>
+      </c>
+      <c r="B56" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>500</v>
+      </c>
+      <c r="D56" s="2">
+        <v>200</v>
+      </c>
+      <c r="E56" s="2">
+        <v>100</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>100</v>
+      </c>
+      <c r="I56" s="2">
+        <v>200</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>1108</v>
+      </c>
+      <c r="B57" s="2">
+        <v>35000</v>
+      </c>
+      <c r="C57" s="2">
+        <v>300</v>
+      </c>
+      <c r="D57" s="2">
+        <v>200</v>
+      </c>
+      <c r="E57" s="2">
+        <v>150</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>200</v>
+      </c>
+      <c r="I57" s="2">
+        <v>150</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>1109</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>300</v>
+      </c>
+      <c r="D58" s="2">
+        <v>180</v>
+      </c>
+      <c r="E58" s="2">
+        <v>150</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>150</v>
+      </c>
+      <c r="I58" s="2">
+        <v>150</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>1110</v>
+      </c>
+      <c r="B59" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C59" s="2">
+        <v>500</v>
+      </c>
+      <c r="D59" s="2">
+        <v>230</v>
+      </c>
+      <c r="E59" s="2">
+        <v>350</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>230</v>
+      </c>
+      <c r="I59" s="2">
+        <v>350</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B60" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C60" s="2">
+        <v>500</v>
+      </c>
+      <c r="D60" s="2">
+        <v>350</v>
+      </c>
+      <c r="E60" s="2">
+        <v>200</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>350</v>
+      </c>
+      <c r="I60" s="2">
+        <v>200</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B61" s="2">
+        <v>58000</v>
+      </c>
+      <c r="C61" s="2">
+        <v>500</v>
+      </c>
+      <c r="D61" s="2">
+        <v>280</v>
+      </c>
+      <c r="E61" s="2">
+        <v>280</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>250</v>
+      </c>
+      <c r="I61" s="2">
+        <v>250</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B62" s="2">
+        <v>65000</v>
+      </c>
+      <c r="C62" s="2">
+        <v>700</v>
+      </c>
+      <c r="D62" s="2">
+        <v>380</v>
+      </c>
+      <c r="E62" s="2">
+        <v>230</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>300</v>
+      </c>
+      <c r="I62" s="2">
+        <v>150</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C63" s="2">
+        <v>500</v>
+      </c>
+      <c r="D63" s="2">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2">
+        <v>200</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>150</v>
+      </c>
+      <c r="I63" s="2">
+        <v>150</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B64" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C64" s="2">
+        <v>300</v>
+      </c>
+      <c r="D64" s="2">
+        <v>180</v>
+      </c>
+      <c r="E64" s="2">
+        <v>120</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>100</v>
+      </c>
+      <c r="I64" s="2">
+        <v>150</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B65" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="2">
+        <v>230</v>
+      </c>
+      <c r="E65" s="2">
+        <v>350</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>200</v>
+      </c>
+      <c r="I65" s="2">
+        <v>250</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B66" s="2">
+        <v>58000</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D66" s="2">
+        <v>500</v>
+      </c>
+      <c r="E66" s="2">
+        <v>200</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>250</v>
+      </c>
+      <c r="I66" s="2">
+        <v>150</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B67" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D67" s="2">
+        <v>280</v>
+      </c>
+      <c r="E67" s="2">
+        <v>150</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>300</v>
+      </c>
+      <c r="I67" s="2">
+        <v>230</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>1206</v>
+      </c>
+      <c r="B68" s="2">
+        <v>150000</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D68" s="2">
+        <v>130</v>
+      </c>
+      <c r="E68" s="2">
+        <v>300</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>200</v>
+      </c>
+      <c r="I68" s="2">
+        <v>350</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B69" s="2">
+        <v>450000</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="2">
+        <v>350</v>
+      </c>
+      <c r="E69" s="2">
+        <v>500</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>350</v>
+      </c>
+      <c r="I69" s="2">
+        <v>500</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B70" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="2">
+        <v>500</v>
+      </c>
+      <c r="E70" s="2">
+        <v>320</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>500</v>
+      </c>
+      <c r="I70" s="2">
+        <v>350</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>1209</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="2">
+        <v>470</v>
+      </c>
+      <c r="E71" s="2">
+        <v>620</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>480</v>
+      </c>
+      <c r="I71" s="2">
+        <v>630</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>1210</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="2">
+        <v>700</v>
+      </c>
+      <c r="E72" s="2">
+        <v>350</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>620</v>
+      </c>
+      <c r="I72" s="2">
+        <v>450</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterData.xlsx
+++ b/Excel/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\ForTomorrow\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062F0EE-7206-4FE8-9D63-869A2A08EC85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E163BB-85EF-4FCA-BC37-46EB2EA0A782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>1101</v>
+        <v>1049</v>
       </c>
       <c r="B50" s="2">
         <v>3000</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>1102</v>
+        <v>1050</v>
       </c>
       <c r="B51" s="2">
         <v>2000</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>1103</v>
+        <v>1051</v>
       </c>
       <c r="B52" s="2">
         <v>2000</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>1104</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="2">
         <v>5000</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>1105</v>
+        <v>1053</v>
       </c>
       <c r="B54" s="2">
         <v>8000</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>1106</v>
+        <v>1054</v>
       </c>
       <c r="B55" s="2">
         <v>7000</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>1107</v>
+        <v>1055</v>
       </c>
       <c r="B56" s="2">
         <v>30000</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>1108</v>
+        <v>1056</v>
       </c>
       <c r="B57" s="2">
         <v>35000</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>1109</v>
+        <v>1057</v>
       </c>
       <c r="B58" s="2">
         <v>50000</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>1110</v>
+        <v>1058</v>
       </c>
       <c r="B59" s="2">
         <v>50000</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>1111</v>
+        <v>1059</v>
       </c>
       <c r="B60" s="2">
         <v>70000</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>1112</v>
+        <v>1060</v>
       </c>
       <c r="B61" s="2">
         <v>58000</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>1113</v>
+        <v>1061</v>
       </c>
       <c r="B62" s="2">
         <v>65000</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>1201</v>
+        <v>1062</v>
       </c>
       <c r="B63" s="2">
         <v>5000</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>1202</v>
+        <v>1063</v>
       </c>
       <c r="B64" s="2">
         <v>8000</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>1203</v>
+        <v>1064</v>
       </c>
       <c r="B65" s="2">
         <v>50000</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>1204</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="2">
         <v>58000</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>1205</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="2">
         <v>100000</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>1206</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="2">
         <v>150000</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>1207</v>
+        <v>1068</v>
       </c>
       <c r="B69" s="2">
         <v>450000</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>1208</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="2">
         <v>500000</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>1209</v>
+        <v>1070</v>
       </c>
       <c r="B71" s="2">
         <v>2000000</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>1210</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="2">
         <v>2300000</v>
@@ -4117,6 +4117,990 @@
         <v>0</v>
       </c>
       <c r="M72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>1075</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>1076</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>1077</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>1079</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>1081</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>1082</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>1084</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>1086</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>1087</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>1088</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>1089</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>1094</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>1095</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
         <v>0</v>
       </c>
     </row>
